--- a/data/trans_dic/IP17-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP17-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,42; 32,94</t>
+          <t>17,28; 31,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,63; 27,3</t>
+          <t>14,03; 27,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 26,33</t>
+          <t>11,1; 27,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 24,47</t>
+          <t>8,08; 23,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,36; 30,77</t>
+          <t>16,27; 29,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,98; 28,77</t>
+          <t>14,94; 29,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,83; 42,84</t>
+          <t>23,63; 42,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,7; 22,34</t>
+          <t>6,55; 23,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 27,99</t>
+          <t>18,2; 28,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 25,41</t>
+          <t>16,0; 25,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,98; 31,3</t>
+          <t>18,53; 30,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,32; 20,27</t>
+          <t>9,03; 21,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,32; 25,24</t>
+          <t>19,36; 25,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,61; 28,29</t>
+          <t>21,66; 28,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 22,93</t>
+          <t>17,08; 22,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,14; 20,93</t>
+          <t>14,81; 21,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,95; 22,02</t>
+          <t>16,37; 22,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,86; 25,05</t>
+          <t>18,99; 25,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,44</t>
+          <t>17,0; 22,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 17,5</t>
+          <t>12,02; 18,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,67; 23,19</t>
+          <t>18,68; 23,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,33; 25,8</t>
+          <t>21,38; 25,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 21,69</t>
+          <t>17,68; 21,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 18,57</t>
+          <t>14,47; 18,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,83; 28,24</t>
+          <t>17,41; 27,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,84; 23,19</t>
+          <t>13,6; 22,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 25,26</t>
+          <t>15,87; 25,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,17; 22,25</t>
+          <t>12,25; 22,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 24,86</t>
+          <t>14,76; 25,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 32,11</t>
+          <t>20,91; 32,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,0; 23,54</t>
+          <t>13,85; 23,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 23,55</t>
+          <t>13,36; 23,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 24,69</t>
+          <t>17,41; 24,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,17; 26,0</t>
+          <t>18,55; 26,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,97; 23,04</t>
+          <t>16,1; 22,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,98; 21,17</t>
+          <t>14,09; 21,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,0; 25,04</t>
+          <t>20,09; 25,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,23; 25,15</t>
+          <t>20,18; 25,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,63; 22,27</t>
+          <t>17,44; 22,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 20,17</t>
+          <t>15,09; 20,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,18; 22,1</t>
+          <t>17,32; 22,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,24; 25,56</t>
+          <t>20,65; 25,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,06; 22,91</t>
+          <t>18,34; 23,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,9; 18,0</t>
+          <t>13,06; 17,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,33; 22,75</t>
+          <t>19,18; 22,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,94; 24,66</t>
+          <t>21,07; 24,77</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,3; 21,67</t>
+          <t>18,4; 21,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,24</t>
+          <t>14,78; 18,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP17-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP17-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>15,56; 29,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>14,66; 28,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,69; 43,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,01; 21,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,79; 31,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,02; 28,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,38; 27,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>8,81; 24,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>17,99; 28,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>15,9; 26,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,43; 30,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>9,24; 20,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>19,68%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14,41%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22,22%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24,81%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>17,66%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>15,07%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>21,99%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>20,98%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>32,38%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,84%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>16,13%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 31,28</t>
+          <t>15,92; 22,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,03; 27,92</t>
+          <t>19,21; 25,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,1; 27,15</t>
+          <t>16,89; 22,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,08; 23,48</t>
+          <t>11,06; 17,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 29,67</t>
+          <t>19,32; 25,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,94; 29,0</t>
+          <t>21,98; 28,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,63; 42,49</t>
+          <t>16,88; 22,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 23,02</t>
+          <t>14,66; 20,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,2; 28,19</t>
+          <t>18,49; 22,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,0; 25,93</t>
+          <t>21,3; 25,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,53; 30,83</t>
+          <t>17,76; 21,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,03; 21,09</t>
+          <t>13,85; 18,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>17,56%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,36; 25,51</t>
+          <t>14,95; 24,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,66; 28,21</t>
+          <t>21,04; 32,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,08; 22,89</t>
+          <t>13,96; 23,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,81; 21,04</t>
+          <t>13,52; 23,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 22,44</t>
+          <t>16,83; 27,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,99; 25,64</t>
+          <t>13,68; 23,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 22,53</t>
+          <t>15,87; 25,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,01</t>
+          <t>11,97; 21,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,68; 23,13</t>
+          <t>17,46; 24,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,38; 25,9</t>
+          <t>18,8; 26,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,68; 21,84</t>
+          <t>15,93; 22,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,47; 18,92</t>
+          <t>13,95; 21,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>16,26%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 27,9</t>
+          <t>17,38; 22,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,6; 22,95</t>
+          <t>20,19; 25,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 25,1</t>
+          <t>18,03; 22,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,25; 22,59</t>
+          <t>12,5; 17,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,76; 25,03</t>
+          <t>20,06; 25,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,91; 32,12</t>
+          <t>20,19; 25,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,85; 23,95</t>
+          <t>17,19; 22,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,36; 23,74</t>
+          <t>15,09; 19,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 24,37</t>
+          <t>19,37; 22,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,55; 26,0</t>
+          <t>21,08; 24,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,99</t>
+          <t>18,44; 21,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,09; 21,52</t>
+          <t>14,55; 18,14</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>22,39%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>22,71%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>19,72%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17,42%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>19,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>22,98%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>20,47%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>15,3%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>21,05%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>22,84%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>20,08%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>16,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>20,09; 25,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>20,18; 25,29</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>17,44; 22,18</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>15,09; 20,16</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>17,32; 22,32</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>20,65; 25,9</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>18,34; 23,08</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>13,06; 17,82</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>19,18; 22,81</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>21,07; 24,77</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>18,4; 21,81</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>14,78; 18,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
